--- a/OptForce_bdoh/OutputsFindMustUU/MustUU.xlsx
+++ b/OptForce_bdoh/OutputsFindMustUU/MustUU.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>2TRANSKETO-RXN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ACETOLACTATE-DECARBOXYLASE-RXN</t>
   </si>
@@ -23,40 +20,13 @@
     <t>ACETOLACTSYN-RXN</t>
   </si>
   <si>
-    <t>AIRCARBOXY-RXN</t>
-  </si>
-  <si>
-    <t>CITRAMALATE-LYASE-RXN</t>
-  </si>
-  <si>
-    <t>F16ALDOLASE-RXN</t>
-  </si>
-  <si>
-    <t>GAPOXNPHOSPHN-RXN</t>
-  </si>
-  <si>
-    <t>IMPCYCLOHYDROLASE-RXN</t>
-  </si>
-  <si>
-    <t>METHYLASPARTATE-AMMONIA-LYASE-RXN</t>
-  </si>
-  <si>
     <t>PYRUFERREDUCT-RXN</t>
-  </si>
-  <si>
-    <t>RIB5PISOM-RXN</t>
-  </si>
-  <si>
-    <t>RIBULP3EPIM-RXN</t>
   </si>
   <si>
     <t>RR-BUTANEDIOL-DEHYDROGENASE-RXN</t>
   </si>
   <si>
-    <t>TRANSALDOL-RXN</t>
-  </si>
-  <si>
-    <t>codh</t>
+    <t>ethanol_tx</t>
   </si>
 </sst>
 </file>
@@ -132,56 +102,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/OptForce_bdoh/OutputsFindMustUU/MustUU.xlsx
+++ b/OptForce_bdoh/OutputsFindMustUU/MustUU.xlsx
@@ -12,21 +12,417 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>ACETOLACTATE-DECARBOXYLASE-RXN</t>
-  </si>
-  <si>
-    <t>ACETOLACTSYN-RXN</t>
-  </si>
-  <si>
-    <t>PYRUFERREDUCT-RXN</t>
-  </si>
-  <si>
-    <t>RR-BUTANEDIOL-DEHYDROGENASE-RXN</t>
-  </si>
-  <si>
-    <t>ethanol_tx</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+  <si>
+    <t>1.1.1.283-RXN</t>
+  </si>
+  <si>
+    <t>2.3.1.157-RXN</t>
+  </si>
+  <si>
+    <t>2.7.1.148-RXN</t>
+  </si>
+  <si>
+    <t>2.7.7.39-RXN</t>
+  </si>
+  <si>
+    <t>2.7.7.60-RXN</t>
+  </si>
+  <si>
+    <t>2TRANSKETO-RXN</t>
+  </si>
+  <si>
+    <t>4.3.1.4-RXN</t>
+  </si>
+  <si>
+    <t>5.4.2.10-RXN</t>
+  </si>
+  <si>
+    <t>ADPREDUCT-RXN</t>
+  </si>
+  <si>
+    <t>AIRCARBOXY-RXN</t>
+  </si>
+  <si>
+    <t>ALARACECAT-RXN</t>
+  </si>
+  <si>
+    <t>ALLOPHANATE-HYDROLASE-RXN</t>
+  </si>
+  <si>
+    <t>ARGINASE-RXN</t>
+  </si>
+  <si>
+    <t>ARGSUCCINLYA-RXN</t>
+  </si>
+  <si>
+    <t>ARG_bm_tx</t>
+  </si>
+  <si>
+    <t>ASN_bm_tx</t>
+  </si>
+  <si>
+    <t>ATPASE-RXN</t>
+  </si>
+  <si>
+    <t>CITRAMALATE-LYASE-RXN</t>
+  </si>
+  <si>
+    <t>CTP_bm_tx</t>
+  </si>
+  <si>
+    <t>CYS_bm_tx</t>
+  </si>
+  <si>
+    <t>DALADALALIG-RXN</t>
+  </si>
+  <si>
+    <t>DATP_bm_tx</t>
+  </si>
+  <si>
+    <t>DCTP_bm_tx</t>
+  </si>
+  <si>
+    <t>DIOHBUTANONEPSYN-RXN</t>
+  </si>
+  <si>
+    <t>DXPREDISOM-RXN</t>
+  </si>
+  <si>
+    <t>DXS-RXN</t>
+  </si>
+  <si>
+    <t>F16ALDOLASE-RXN</t>
+  </si>
+  <si>
+    <t>FADSYN-RXN</t>
+  </si>
+  <si>
+    <t>FPPSYN-RXN</t>
+  </si>
+  <si>
+    <t>GAPOXNPHOSPHN-RXN</t>
+  </si>
+  <si>
+    <t>GCVMULTI-RXN</t>
+  </si>
+  <si>
+    <t>GLN_bm_tx</t>
+  </si>
+  <si>
+    <t>GLUTAMIDOTRANS-RXN</t>
+  </si>
+  <si>
+    <t>GLUTRACE-RXN</t>
+  </si>
+  <si>
+    <t>GLYOHMETRANS-RXN</t>
+  </si>
+  <si>
+    <t>GLY_bm_tx</t>
+  </si>
+  <si>
+    <t>GPPSYN-RXN</t>
+  </si>
+  <si>
+    <t>GTP-CYCLOHYDRO-II-RXN</t>
+  </si>
+  <si>
+    <t>GTP_bm_tx</t>
+  </si>
+  <si>
+    <t>HISTAMINOTRANS-RXN</t>
+  </si>
+  <si>
+    <t>HISTCYCLOHYD-RXN</t>
+  </si>
+  <si>
+    <t>HISTIDINE-AMMONIA-LYASE-RXN</t>
+  </si>
+  <si>
+    <t>HISTIDPHOS-RXN</t>
+  </si>
+  <si>
+    <t>HISTPRATPHYD-RXN</t>
+  </si>
+  <si>
+    <t>HIS_bm_tx</t>
+  </si>
+  <si>
+    <t>ILE_bm_tx</t>
+  </si>
+  <si>
+    <t>IMIDAZOLONEPROPIONASE-RXN</t>
+  </si>
+  <si>
+    <t>IMIDPHOSDEHYD-RXN</t>
+  </si>
+  <si>
+    <t>IMPCYCLOHYDROLASE-RXN</t>
+  </si>
+  <si>
+    <t>ISPH2-RXN-(NAD)</t>
+  </si>
+  <si>
+    <t>L-ALPHA-ALANINE_bm_tx</t>
+  </si>
+  <si>
+    <t>L-ASPARTATE_bm_tx</t>
+  </si>
+  <si>
+    <t>L-GLN-FRUCT-6-P-AMINOTRANS-RXN</t>
+  </si>
+  <si>
+    <t>LEU_bm_tx</t>
+  </si>
+  <si>
+    <t>LUMAZINESYN-RXN</t>
+  </si>
+  <si>
+    <t>LYS_bm_tx</t>
+  </si>
+  <si>
+    <t>METHGLYSYN-RXN</t>
+  </si>
+  <si>
+    <t>METHYLASPARTATE-AMMONIA-LYASE-RXN</t>
+  </si>
+  <si>
+    <t>METHYLENE_HEXADECANOATE_bm_tx</t>
+  </si>
+  <si>
+    <t>MET_bm_tx</t>
+  </si>
+  <si>
+    <t>MYRISTATE_bm_tx</t>
+  </si>
+  <si>
+    <t>NACGLCTRANS-RXN</t>
+  </si>
+  <si>
+    <t>NADH-DEHYDROG-A-RXN</t>
+  </si>
+  <si>
+    <t>NAD_bm_tx</t>
+  </si>
+  <si>
+    <t>NAG1P-URIDYLTRANS-RXN</t>
+  </si>
+  <si>
+    <t>NMNAMIDOHYDRO-RXN</t>
+  </si>
+  <si>
+    <t>PALMITATE_bm_tx</t>
+  </si>
+  <si>
+    <t>PALMITOLEATE_bm_tx</t>
+  </si>
+  <si>
+    <t>PGLYCDEHYDROG-RXN</t>
+  </si>
+  <si>
+    <t>PHE_bm_tx</t>
+  </si>
+  <si>
+    <t>PHOSNACMURPENTATRANS-RXN</t>
+  </si>
+  <si>
+    <t>PRIBFAICARPISOM-RXN</t>
+  </si>
+  <si>
+    <t>PRO_bm_tx</t>
+  </si>
+  <si>
+    <t>PYRROLINECARBREDUCT-RXN-(NAD)</t>
+  </si>
+  <si>
+    <t>RHAMNISOM-RXN</t>
+  </si>
+  <si>
+    <t>RHAMNULOKIN-RXN</t>
+  </si>
+  <si>
+    <t>RHAMNULPALDOL-RXN</t>
+  </si>
+  <si>
+    <t>RIB5PISOM-RXN</t>
+  </si>
+  <si>
+    <t>RIBOFLAVIN-SYN-RXN</t>
+  </si>
+  <si>
+    <t>RIBOFLAVINKIN-RXN</t>
+  </si>
+  <si>
+    <t>RIBOFLAVINSYNDEAM-RXN</t>
+  </si>
+  <si>
+    <t>RIBOFLAVINSYNREDUC-RXN</t>
+  </si>
+  <si>
+    <t>RIBOPHOSPHAT-RXN</t>
+  </si>
+  <si>
+    <t>RIBULP3EPIM-RXN</t>
+  </si>
+  <si>
+    <t>RXN-11832</t>
+  </si>
+  <si>
+    <t>RXN-12195</t>
+  </si>
+  <si>
+    <t>RXN-15356</t>
+  </si>
+  <si>
+    <t>RXN-4822</t>
+  </si>
+  <si>
+    <t>RXN-7737</t>
+  </si>
+  <si>
+    <t>RXN-8999</t>
+  </si>
+  <si>
+    <t>RXN0-302</t>
+  </si>
+  <si>
+    <t>RXN0-5114</t>
+  </si>
+  <si>
+    <t>RXN0-5199</t>
+  </si>
+  <si>
+    <t>RXN0-5260</t>
+  </si>
+  <si>
+    <t>RXN0-5306</t>
+  </si>
+  <si>
+    <t>RXN0-5405</t>
+  </si>
+  <si>
+    <t>RXN0-882</t>
+  </si>
+  <si>
+    <t>RXN0-884-(NAD)</t>
+  </si>
+  <si>
+    <t>SER_bm_tx</t>
+  </si>
+  <si>
+    <t>SPONTPRO-RXN</t>
+  </si>
+  <si>
+    <t>STEARATE_bm_tx</t>
+  </si>
+  <si>
+    <t>THF_bm_tx</t>
+  </si>
+  <si>
+    <t>THR_bm_tx</t>
+  </si>
+  <si>
+    <t>TRANSALDOL-RXN</t>
+  </si>
+  <si>
+    <t>TRP_bm_tx</t>
+  </si>
+  <si>
+    <t>TTP_bm_tx</t>
+  </si>
+  <si>
+    <t>TYROSINE-AMINOTRANSFERASE-RXN</t>
+  </si>
+  <si>
+    <t>TYR_bm_tx</t>
+  </si>
+  <si>
+    <t>UDP-NACMUR-ALA-LIG-RXN</t>
+  </si>
+  <si>
+    <t>UDP-NACMURALA-GLU-LIG-RXN</t>
+  </si>
+  <si>
+    <t>UDP-NACMURALGLDAPAALIG-RXN</t>
+  </si>
+  <si>
+    <t>UDP-NACMURALGLDAPLIG-RXN</t>
+  </si>
+  <si>
+    <t>UDPGLCNACEPIM-RXN</t>
+  </si>
+  <si>
+    <t>UDPNACETYLGLUCOSAMENOLPYRTRANS-RXN</t>
+  </si>
+  <si>
+    <t>UDPNACETYLMURAMATEDEHYDROG-RXN</t>
+  </si>
+  <si>
+    <t>UNDECAPRENYL-DIPHOSPHATASE-RXN</t>
+  </si>
+  <si>
+    <t>VAL_bm_tx</t>
+  </si>
+  <si>
+    <t>XYLISOM-RXN</t>
+  </si>
+  <si>
+    <t>XYLULOKIN-RXN</t>
+  </si>
+  <si>
+    <t>acetylcoa_tx</t>
+  </si>
+  <si>
+    <t>adenosyl_homocysteine_bm_tx</t>
+  </si>
+  <si>
+    <t>adp_tx</t>
+  </si>
+  <si>
+    <t>carbon_monoxide_tx</t>
+  </si>
+  <si>
+    <t>codh</t>
+  </si>
+  <si>
+    <t>formate_tx</t>
+  </si>
+  <si>
+    <t>fumarate_tx</t>
+  </si>
+  <si>
+    <t>glycerol_teichoic_acid_bm_tx</t>
+  </si>
+  <si>
+    <t>glycol_tx</t>
+  </si>
+  <si>
+    <t>hydrogen_tx</t>
+  </si>
+  <si>
+    <t>lactate_tx</t>
+  </si>
+  <si>
+    <t>petroselinate_synth</t>
+  </si>
+  <si>
+    <t>propanediol_oxidoreductase</t>
+  </si>
+  <si>
+    <t>propanediol_tx</t>
+  </si>
+  <si>
+    <t>rhamnose_tx</t>
+  </si>
+  <si>
+    <t>succinate_dehydrogenase</t>
+  </si>
+  <si>
+    <t>succinate_tx</t>
+  </si>
+  <si>
+    <t>xylose_tx</t>
   </si>
 </sst>
 </file>
@@ -102,6 +498,666 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
